--- a/data/example_database.xlsx
+++ b/data/example_database.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Master biologia avanzada\TFM\soil-fauna\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -243,6 +248,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -570,30 +583,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" customWidth="1"/>
-    <col min="21" max="22" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.375" customWidth="1"/>
+    <col min="21" max="22" width="20.125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18" customWidth="1"/>
     <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -756,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -824,72 +837,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -908,16 +924,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -933,7 +949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -941,7 +957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -949,7 +965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -957,7 +973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,7 +981,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,7 +989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -981,7 +997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,7 +1021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1013,7 +1029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1037,7 +1053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1053,7 +1069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1117,7 +1133,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1125,7 +1141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1141,7 +1157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1149,7 +1165,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1157,7 +1173,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>

--- a/data/example_database.xlsx
+++ b/data/example_database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="17535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="60">
   <si>
     <t>order</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>to wirte any observation worth mentioning</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>amount of wood</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,14 +605,14 @@
     <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6.375" customWidth="1"/>
     <col min="21" max="22" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" customWidth="1"/>
-    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,31 +683,34 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -747,12 +756,9 @@
       <c r="O2">
         <v>8</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
         <v>0</v>
       </c>
@@ -768,8 +774,11 @@
       <c r="AD2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -815,9 +824,6 @@
       <c r="O3">
         <v>8</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3">
         <v>0</v>
       </c>
@@ -825,19 +831,22 @@
         <v>0</v>
       </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -845,62 +854,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -922,10 +931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1119,15 +1128,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -1143,7 +1152,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -1151,7 +1160,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -1159,7 +1168,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
@@ -1167,7 +1176,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
@@ -1175,9 +1184,17 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>57</v>
       </c>
     </row>
